--- a/Documentos/Cenarios/Automation Exercise.xlsx
+++ b/Documentos/Cenarios/Automation Exercise.xlsx
@@ -11,19 +11,20 @@
     <sheet state="visible" name="CART" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="CHECKOUT" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="PAYMENT" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="CONTACT US" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataChecksum="BxjCyRWWH5PGC6GJ3XxIyq5vM5do+MsEGuH7nVIXkV4="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataChecksum="1vh5pEJSUqGU+8KsYg9sJD1mJiXdfsO1B4fWysVX4eU="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="258">
   <si>
     <t>Cenário</t>
   </si>
@@ -64,6 +65,9 @@
     <t>A tela principal do site Automation Exerise deve ser exibida</t>
   </si>
   <si>
+    <t>passou</t>
+  </si>
+  <si>
     <t>Clica no aba "Signup / Login"</t>
   </si>
   <si>
@@ -85,7 +89,7 @@
     <t>O sistema deverá aceitar o dado inserido no campo</t>
   </si>
   <si>
-    <t>O usuario digite no campo de senha "1234567890"</t>
+    <t>O usuario digite no campo de senha "1q2w3e4r5t6y7u8i9o0p"</t>
   </si>
   <si>
     <t>Clicar no botão "Login"</t>
@@ -235,7 +239,7 @@
     <t>Preencher o campo "Email Address" com o nome do email (jeferson@teste.com)</t>
   </si>
   <si>
-    <t>Preencher o campo "Password" com o senha do usuario (1234567890)</t>
+    <t>Preencher o campo "Password" com o senha do usuario (1q2w3e4r5t6y7u8i9o0p)</t>
   </si>
   <si>
     <t>O sistema deverá autenticar, permitir o login e redirecionar para a tela principal</t>
@@ -331,7 +335,7 @@
     <t>Inserir todos os campos obrigatórios e criar uma conta com sucesso</t>
   </si>
   <si>
-    <t>Acessar o sistema Automation Exercise pela internet e criar uma conta nome (jeferson) e email (jefynhu@teste.com)</t>
+    <t>Acessar o sistema Automation Exercise pela internet e criar uma conta nome (jeferson) e email (aleatório)</t>
   </si>
   <si>
     <t>001 - Cadastras com válidas</t>
@@ -415,46 +419,43 @@
     <t>003 - Restrição de Idade (Apenas Maiores de 18 Anos)</t>
   </si>
   <si>
-    <t>Seleciona "Year" (2008 - Menor de 18 anos)</t>
+    <t>Seleciona "Year" (a partir 2008 é menor de 18 anos)</t>
   </si>
   <si>
     <t>O sistema deverá exibir uma mensagem de erro informando que a idade mínima permitida é 18 anos</t>
   </si>
   <si>
-    <t>Seleciona "Year" (2005 - Exatamente 18 anos)</t>
-  </si>
-  <si>
-    <t>004 - Validação de Senha (Mínimo 8 Caracteres)</t>
+    <t>falhou</t>
+  </si>
+  <si>
+    <t>O sistema exibirá a mensagem: "Cadastrar não deu certo, tente novamente."</t>
+  </si>
+  <si>
+    <t>004 - Validação de Senha (Mínimo 8 e máximo 16 caracteres)</t>
   </si>
   <si>
     <t>Preencher o campo "password" com (012345 - menos de 8 caracteres)</t>
   </si>
   <si>
-    <t>O sistema deverá exibir uma mensagem de erro informando que a senha dever ter no mínimo 8 caracteres</t>
-  </si>
-  <si>
-    <t>Preencher o campo "password" com (0123456789 - examente ou mais de 8 caracteres)</t>
+    <t>O sistema deverá exibir uma mensagem de erro informando que a senha dever ter no mínimo 8 e máximo 16 caracteres</t>
   </si>
   <si>
     <t>005 - Validação do Campo "Mobile Number" (Apenas Números Permitidos)</t>
   </si>
   <si>
-    <t>Preencher o campo "Mobile Number" com (abcABC - contendo letras)</t>
+    <t>Preencher o campo "Mobile Number" com (abcABC!@# - contendo letras e caracteres especiais)</t>
   </si>
   <si>
     <t>O sistema deve exibir uma mensagem de erro informando que apenas números são permitidos</t>
   </si>
   <si>
-    <t>Preencher o campo "Mobile Number" com (!@# - contendo caracteres especiais)</t>
-  </si>
-  <si>
     <t>Menu</t>
   </si>
   <si>
     <t>Testar se cada opção do menu funciona corretamente</t>
   </si>
   <si>
-    <t>Autenticar no sistema para acessar</t>
+    <t>Autenticar no sistema para acessar (jeferson@teste.com e 1q2w3e4r5t6y7u8i9o0p)</t>
   </si>
   <si>
     <t>001 - Menu aba "Home"</t>
@@ -583,6 +584,21 @@
     <t>O sistema deverá redirecionar para a tela checkout</t>
   </si>
   <si>
+    <t>003 - Verificar comportamento do checkout quando não há produtos no carrinho</t>
+  </si>
+  <si>
+    <t>Verificar se não há um ou mais produtos listado na página do carrinho</t>
+  </si>
+  <si>
+    <t>Aparecerá mensagem "Cart is empty! Click here to buy products."</t>
+  </si>
+  <si>
+    <t>Clicar no link "here"</t>
+  </si>
+  <si>
+    <t>O sistema deverá redirecionar para a tela do produto</t>
+  </si>
+  <si>
     <t>Informação dado</t>
   </si>
   <si>
@@ -683,13 +699,112 @@
   </si>
   <si>
     <t>O campo do " " cartão exibirá a mensagem: "Preencha este campo."</t>
+  </si>
+  <si>
+    <t>007 - Validar que o campo 'Name on Card' exibe erro ao ser preenchido com apenas números</t>
+  </si>
+  <si>
+    <t>Preencher o campo do nome cartão (1234567890)</t>
+  </si>
+  <si>
+    <t>O sistema exibirá a mensagem invalido o campo "está preenchido de forma inválida."</t>
+  </si>
+  <si>
+    <t>A pagina do contato</t>
+  </si>
+  <si>
+    <t>Testar se o sistema funciona corretamente contato</t>
+  </si>
+  <si>
+    <t>001 - Validar envio bem-sucedido do formulário de contato</t>
+  </si>
+  <si>
+    <t>Preencher o campo "Name" com (fulano)</t>
+  </si>
+  <si>
+    <t>Preencher o campo "Email" com (fulano@gmail.com)</t>
+  </si>
+  <si>
+    <t>Preencher o campo "Subject" com (uma palavra)</t>
+  </si>
+  <si>
+    <t>Preencher o campo "Your Message Here" com (frase ou texto)</t>
+  </si>
+  <si>
+    <t>Clicar no botão "Escolher arquivo"</t>
+  </si>
+  <si>
+    <t>O sistema deve aceitar o arquivo inserido, exibir o nome do arquivo selecionado</t>
+  </si>
+  <si>
+    <t>Clicar no botão "Submit"</t>
+  </si>
+  <si>
+    <t>O sistema deve alerta cancela ou ok para processar os dados</t>
+  </si>
+  <si>
+    <t>Clicar no botão "ok"</t>
+  </si>
+  <si>
+    <t>Exibir uma mensagem de confirmação, como “Success! Your details have been submitted successfully.”</t>
+  </si>
+  <si>
+    <t>002 - Validar que o formulário não é enviado ao clicar em "Submit" sem preencher os campos obrigatórios</t>
+  </si>
+  <si>
+    <t>003 - Validar que os campos "Name" não aceita apenas números ou caracteres especiais</t>
+  </si>
+  <si>
+    <t>Preencher o campo "Name" com (!@# ou 123)</t>
+  </si>
+  <si>
+    <t>004 - Validar que os campos "Subject" não aceita apenas números ou caracteres especiais</t>
+  </si>
+  <si>
+    <t>Preencher o campo "Subject" com (!@# ou 123)</t>
+  </si>
+  <si>
+    <t>005 - Validar o limite máximo de caracteres no campo "Name"</t>
+  </si>
+  <si>
+    <t>Preencher o campo "Name" com (255 caracteres)</t>
+  </si>
+  <si>
+    <t>O sistema deverá aceitar o dado inserido no campo até atingir 255 caracteres</t>
+  </si>
+  <si>
+    <t>Preencher o campo "Name" com (256 caracteres)</t>
+  </si>
+  <si>
+    <t>O sistema deverá não aceitar o dado inserido no campo mais do que 255 caracteres</t>
+  </si>
+  <si>
+    <t>006 - Validar o limite máximo de caracteres no campo "Subject"</t>
+  </si>
+  <si>
+    <t>Preencher o campo "Subject" com (255 caracteres)</t>
+  </si>
+  <si>
+    <t>Preencher o campo "Subject" com (256 caracteres)</t>
+  </si>
+  <si>
+    <t>006 - Validar o limite máximo de caracteres no campo "Your Message Here"</t>
+  </si>
+  <si>
+    <t>Preencher o campo "Your Message Here" com (255 caracteres)</t>
+  </si>
+  <si>
+    <t>Preencher o campo "Your Message Here" com (256 caracteres)</t>
+  </si>
+  <si>
+    <t>007 - Validar que o sistema não permite envio do formulário quando apenas o campo "Email" é preenchido</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -716,11 +831,6 @@
     </font>
     <font>
       <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
       <color rgb="FF242424"/>
       <name val="Arial"/>
     </font>
@@ -732,6 +842,16 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -764,7 +884,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="53">
+  <borders count="54">
     <border/>
     <border>
       <left style="medium">
@@ -900,16 +1020,6 @@
       <bottom/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -930,14 +1040,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-    </border>
-    <border>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
     </border>
     <border>
       <left style="medium">
@@ -1117,9 +1219,33 @@
       </bottom>
     </border>
     <border>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -1131,21 +1257,15 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -1153,29 +1273,23 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <bottom/>
     </border>
     <border>
       <left style="medium">
@@ -1272,6 +1386,17 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -1291,7 +1416,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="136">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1338,14 +1463,11 @@
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1355,17 +1477,16 @@
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="12" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1374,216 +1495,216 @@
     <xf borderId="13" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="14" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf borderId="8" fillId="2" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="15" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="16" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf borderId="16" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="22" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="24" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="26" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="27" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="28" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="29" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="30" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="31" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="32" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="27" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="33" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="15" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="21" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="34" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="15" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="17" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="31" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="22" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="13" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="19" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="35" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="23" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="36" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="37" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="21" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="27" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="18" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="23" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="38" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="39" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="24" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="40" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="26" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="27" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="28" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="29" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="30" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="31" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="32" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="21" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="33" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="15" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="34" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="29" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="35" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf borderId="23" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="35" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="33" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="21" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="13" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="36" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="37" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="38" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="29" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="39" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="40" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="25" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="41" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="42" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="42" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="42" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1593,22 +1714,25 @@
     <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="20" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="18" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="16" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="11" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="44" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="45" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1616,33 +1740,66 @@
     <xf borderId="47" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="48" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="49" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="20" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="29" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="27" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="50" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="51" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="19" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="51" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="52" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="17" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="42" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="52" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="22" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="53" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="30" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="42" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="53" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="14" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="38" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="18" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="20" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1681,6 +1838,10 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1952,344 +2113,396 @@
       <c r="E6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="16"/>
+      <c r="F6" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="17"/>
       <c r="C7" s="13">
         <v>2.0</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="19" t="s">
+      <c r="D7" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="16"/>
+      <c r="E7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="20">
+        <v>16</v>
+      </c>
+      <c r="C8" s="19">
         <v>1.0</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="18" t="s">
+      <c r="D8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="16"/>
+      <c r="E8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9">
-      <c r="B9" s="21"/>
-      <c r="C9" s="20">
+      <c r="B9" s="20"/>
+      <c r="C9" s="19">
         <v>2.0</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="18" t="s">
+      <c r="D9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="16"/>
+      <c r="E9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10">
-      <c r="B10" s="21"/>
-      <c r="C10" s="20">
+      <c r="B10" s="20"/>
+      <c r="C10" s="19">
         <v>3.0</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="16"/>
+      <c r="F10" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="17"/>
-      <c r="C11" s="20">
+      <c r="C11" s="19">
         <v>4.0</v>
       </c>
-      <c r="D11" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="18" t="s">
+      <c r="D11" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="16"/>
+      <c r="F11" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12">
       <c r="B12" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="20">
+        <v>23</v>
+      </c>
+      <c r="C12" s="19">
         <v>1.0</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="18" t="s">
+      <c r="D12" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="16"/>
+      <c r="E12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13">
-      <c r="B13" s="21"/>
-      <c r="C13" s="20">
+      <c r="B13" s="20"/>
+      <c r="C13" s="19">
         <v>2.0</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="18" t="s">
+      <c r="D13" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="16"/>
+      <c r="E13" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
       <c r="B14" s="17"/>
-      <c r="C14" s="20">
+      <c r="C14" s="19">
         <v>3.0</v>
       </c>
-      <c r="D14" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="23" t="s">
+      <c r="D14" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="16"/>
+      <c r="E14" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15">
       <c r="B15" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="20">
+        <v>30</v>
+      </c>
+      <c r="C15" s="19">
         <v>1.0</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="25" t="s">
+      <c r="D15" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="16"/>
+      <c r="E15" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16">
-      <c r="B16" s="21"/>
-      <c r="C16" s="20">
+      <c r="B16" s="20"/>
+      <c r="C16" s="19">
         <v>2.0</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="24" t="s">
+      <c r="D16" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="16"/>
+      <c r="E16" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
-      <c r="B17" s="21"/>
-      <c r="C17" s="20">
+      <c r="B17" s="20"/>
+      <c r="C17" s="19">
         <v>3.0</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="24" t="s">
+      <c r="D17" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="16"/>
+      <c r="E17" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="18">
-      <c r="B18" s="21"/>
-      <c r="C18" s="22">
+      <c r="B18" s="20"/>
+      <c r="C18" s="21">
         <v>4.0</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="24" t="s">
+      <c r="D18" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="16"/>
+      <c r="E18" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="19">
       <c r="B19" s="17"/>
-      <c r="C19" s="22">
+      <c r="C19" s="21">
         <v>5.0</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="18" t="s">
+      <c r="D19" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="16"/>
+      <c r="E19" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="20">
       <c r="B20" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="22">
+        <v>41</v>
+      </c>
+      <c r="C20" s="21">
         <v>1.0</v>
       </c>
-      <c r="D20" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="24" t="s">
+      <c r="D20" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="16"/>
+      <c r="E20" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
-      <c r="B21" s="21"/>
-      <c r="C21" s="22">
+      <c r="B21" s="20"/>
+      <c r="C21" s="21">
         <v>2.0</v>
       </c>
-      <c r="D21" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" s="24" t="s">
+      <c r="D21" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="16"/>
+      <c r="E21" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="22">
-      <c r="B22" s="21"/>
-      <c r="C22" s="22">
+      <c r="B22" s="20"/>
+      <c r="C22" s="21">
         <v>3.0</v>
       </c>
-      <c r="D22" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="24" t="s">
+      <c r="D22" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="16"/>
+      <c r="E22" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="23">
       <c r="B23" s="17"/>
-      <c r="C23" s="22">
+      <c r="C23" s="21">
         <v>4.0</v>
       </c>
-      <c r="D23" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" s="18" t="s">
+      <c r="D23" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="F23" s="16"/>
+      <c r="E23" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="24">
       <c r="B24" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="22">
+        <v>50</v>
+      </c>
+      <c r="C24" s="21">
         <v>1.0</v>
       </c>
-      <c r="D24" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="16"/>
+      <c r="D24" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="25">
-      <c r="B25" s="21"/>
-      <c r="C25" s="24">
+      <c r="B25" s="20"/>
+      <c r="C25" s="23">
         <v>2.0</v>
       </c>
-      <c r="D25" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="26"/>
+      <c r="D25" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="26">
-      <c r="B26" s="21"/>
-      <c r="C26" s="24">
+      <c r="B26" s="20"/>
+      <c r="C26" s="23">
         <v>3.0</v>
       </c>
-      <c r="D26" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="26"/>
+      <c r="D26" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="27">
-      <c r="B27" s="21"/>
-      <c r="C27" s="24">
+      <c r="B27" s="20"/>
+      <c r="C27" s="23">
         <v>4.0</v>
       </c>
-      <c r="D27" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="26"/>
+      <c r="D27" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="28">
-      <c r="B28" s="21"/>
-      <c r="C28" s="24">
+      <c r="B28" s="20"/>
+      <c r="C28" s="23">
         <v>5.0</v>
       </c>
-      <c r="D28" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="26"/>
+      <c r="D28" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="29">
       <c r="B29" s="17"/>
-      <c r="C29" s="24">
+      <c r="C29" s="23">
         <v>6.0</v>
       </c>
-      <c r="D29" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E29" s="18" t="s">
+      <c r="D29" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F29" s="26"/>
+      <c r="E29" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="30">
       <c r="B30" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="24">
+        <v>58</v>
+      </c>
+      <c r="C30" s="23">
         <v>1.0</v>
       </c>
-      <c r="D30" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="24" t="s">
+      <c r="D30" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="F30" s="26"/>
+      <c r="E30" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="31">
       <c r="B31" s="17"/>
-      <c r="C31" s="24">
+      <c r="C31" s="23">
         <v>2.0</v>
       </c>
-      <c r="D31" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="E31" s="18" t="s">
+      <c r="D31" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="F31" s="26"/>
+      <c r="E31" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2331,11 +2544,11 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="27" t="s">
-        <v>63</v>
+      <c r="E2" s="25" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -2343,10 +2556,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="27">
+      <c r="E3" s="25">
         <v>1.23456789E9</v>
       </c>
     </row>
@@ -2355,12 +2568,12 @@
         <v>4</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -2369,662 +2582,760 @@
       <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" s="32">
+      <c r="B6" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="29">
         <v>1.0</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="34" t="s">
+      <c r="D6" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="35"/>
+      <c r="E6" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7">
-      <c r="B7" s="21"/>
-      <c r="C7" s="36">
+      <c r="B7" s="20"/>
+      <c r="C7" s="32">
         <v>2.0</v>
       </c>
-      <c r="D7" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="39"/>
+      <c r="D7" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
-      <c r="B8" s="21"/>
-      <c r="C8" s="40">
+      <c r="B8" s="20"/>
+      <c r="C8" s="35">
         <v>3.0</v>
       </c>
-      <c r="D8" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="39"/>
+      <c r="D8" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9">
       <c r="B9" s="17"/>
-      <c r="C9" s="43">
+      <c r="C9" s="38">
         <v>4.0</v>
       </c>
-      <c r="D9" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9" s="39"/>
+      <c r="D9" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10">
       <c r="B10" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="45">
+        <v>73</v>
+      </c>
+      <c r="C10" s="40">
         <v>1.0</v>
       </c>
-      <c r="D10" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="34" t="s">
+      <c r="D10" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="F10" s="39"/>
+      <c r="E10" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11">
-      <c r="B11" s="21"/>
-      <c r="C11" s="47">
+      <c r="B11" s="20"/>
+      <c r="C11" s="42">
         <v>2.0</v>
       </c>
-      <c r="D11" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="E11" s="48" t="s">
+      <c r="D11" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="F11" s="39"/>
+      <c r="E11" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12">
-      <c r="B12" s="21"/>
-      <c r="C12" s="49">
+      <c r="B12" s="20"/>
+      <c r="C12" s="44">
         <v>3.0</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="39"/>
+      <c r="F12" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13">
       <c r="B13" s="17"/>
-      <c r="C13" s="50">
+      <c r="C13" s="45">
         <v>4.0</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C14" s="49">
+        <v>1.0</v>
+      </c>
+      <c r="D14" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="51"/>
+      <c r="C15" s="42">
+        <v>2.0</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="51"/>
+      <c r="C16" s="44">
+        <v>3.0</v>
+      </c>
+      <c r="D16" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="52" t="s">
+      <c r="E16" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="53"/>
+      <c r="C17" s="54">
+        <v>4.0</v>
+      </c>
+      <c r="D17" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="39"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="53" t="s">
+      <c r="E17" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="54">
+      <c r="F17" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="49">
         <v>1.0</v>
       </c>
-      <c r="D14" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="34" t="s">
+      <c r="D18" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="39"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="56"/>
-      <c r="C15" s="47">
+      <c r="E18" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="51"/>
+      <c r="C19" s="42">
         <v>2.0</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D19" s="57" t="s">
+        <v>74</v>
+      </c>
+      <c r="E19" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="51"/>
+      <c r="C20" s="44">
+        <v>3.0</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E20" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="53"/>
+      <c r="C21" s="54">
+        <v>4.0</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="49">
+        <v>1.0</v>
+      </c>
+      <c r="D22" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="E22" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="39"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="56"/>
-      <c r="C16" s="49">
+      <c r="F22" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="51"/>
+      <c r="C23" s="42">
+        <v>2.0</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="51"/>
+      <c r="C24" s="44">
         <v>3.0</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D24" s="52" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="B25" s="53"/>
+      <c r="C25" s="45">
+        <v>4.0</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E25" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="B26" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="49">
+        <v>1.0</v>
+      </c>
+      <c r="D26" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="B27" s="51"/>
+      <c r="C27" s="42">
+        <v>2.0</v>
+      </c>
+      <c r="D27" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="E27" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="B28" s="51"/>
+      <c r="C28" s="44">
+        <v>3.0</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="B29" s="53"/>
+      <c r="C29" s="54">
+        <v>4.0</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="B30" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="59">
+        <v>1.0</v>
+      </c>
+      <c r="D30" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="B31" s="51"/>
+      <c r="C31" s="59">
+        <v>2.0</v>
+      </c>
+      <c r="D31" s="57" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="E16" s="48" t="s">
+      <c r="F31" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="B32" s="51"/>
+      <c r="C32" s="61">
+        <v>3.0</v>
+      </c>
+      <c r="D32" s="52" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="B33" s="53"/>
+      <c r="C33" s="54">
+        <v>4.0</v>
+      </c>
+      <c r="D33" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="E33" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="B34" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="59">
+        <v>1.0</v>
+      </c>
+      <c r="D34" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="B35" s="51"/>
+      <c r="C35" s="59">
+        <v>2.0</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="B36" s="51"/>
+      <c r="C36" s="61">
+        <v>3.0</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="B37" s="53"/>
+      <c r="C37" s="54">
+        <v>4.0</v>
+      </c>
+      <c r="D37" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="E37" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="B38" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="59">
+        <v>1.0</v>
+      </c>
+      <c r="D38" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="E38" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="B39" s="51"/>
+      <c r="C39" s="59">
+        <v>2.0</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="B40" s="51"/>
+      <c r="C40" s="61">
+        <v>3.0</v>
+      </c>
+      <c r="D40" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="F16" s="39"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="58"/>
-      <c r="C17" s="59">
+      <c r="E40" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="B41" s="53"/>
+      <c r="C41" s="54">
         <v>4.0</v>
       </c>
-      <c r="D17" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="39"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="54">
+      <c r="D41" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="E41" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="B42" s="48" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="59">
         <v>1.0</v>
       </c>
-      <c r="D18" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="39"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="56"/>
-      <c r="C19" s="47">
+      <c r="D42" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="B43" s="51"/>
+      <c r="C43" s="59">
         <v>2.0</v>
       </c>
-      <c r="D19" s="62" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="48" t="s">
+      <c r="D43" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E43" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="B44" s="51"/>
+      <c r="C44" s="61">
+        <v>3.0</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="B45" s="53"/>
+      <c r="C45" s="54">
+        <v>4.0</v>
+      </c>
+      <c r="D45" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="B46" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" s="59">
+        <v>1.0</v>
+      </c>
+      <c r="D46" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="B47" s="51"/>
+      <c r="C47" s="59">
+        <v>2.0</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="B48" s="51"/>
+      <c r="C48" s="61">
+        <v>3.0</v>
+      </c>
+      <c r="D48" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="F19" s="39"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="56"/>
-      <c r="C20" s="49">
+      <c r="E48" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="B49" s="53"/>
+      <c r="C49" s="54">
+        <v>4.0</v>
+      </c>
+      <c r="D49" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="E49" s="64" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="B50" s="48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="59">
+        <v>1.0</v>
+      </c>
+      <c r="D50" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="B51" s="51"/>
+      <c r="C51" s="59">
+        <v>2.0</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="B52" s="51"/>
+      <c r="C52" s="61">
         <v>3.0</v>
       </c>
-      <c r="D20" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="39"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="58"/>
-      <c r="C21" s="59">
+      <c r="D52" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E52" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="B53" s="53"/>
+      <c r="C53" s="54">
         <v>4.0</v>
       </c>
-      <c r="D21" s="51" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="39"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="54">
-        <v>1.0</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="39"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="56"/>
-      <c r="C23" s="47">
-        <v>2.0</v>
-      </c>
-      <c r="D23" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="39"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="56"/>
-      <c r="C24" s="49">
-        <v>3.0</v>
-      </c>
-      <c r="D24" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="39"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="B25" s="58"/>
-      <c r="C25" s="50">
-        <v>4.0</v>
-      </c>
-      <c r="D25" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="39"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="B26" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="54">
-        <v>1.0</v>
-      </c>
-      <c r="D26" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="39"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="B27" s="56"/>
-      <c r="C27" s="47">
-        <v>2.0</v>
-      </c>
-      <c r="D27" s="62" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="39"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="B28" s="56"/>
-      <c r="C28" s="49">
-        <v>3.0</v>
-      </c>
-      <c r="D28" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="39"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="58"/>
-      <c r="C29" s="59">
-        <v>4.0</v>
-      </c>
-      <c r="D29" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="F29" s="39"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="64">
-        <v>1.0</v>
-      </c>
-      <c r="D30" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="F30" s="39"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="B31" s="56"/>
-      <c r="C31" s="64">
-        <v>2.0</v>
-      </c>
-      <c r="D31" s="62" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="39"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="56"/>
-      <c r="C32" s="65">
-        <v>3.0</v>
-      </c>
-      <c r="D32" s="57" t="s">
-        <v>85</v>
-      </c>
-      <c r="E32" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="39"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="B33" s="58"/>
-      <c r="C33" s="59">
-        <v>4.0</v>
-      </c>
-      <c r="D33" s="66" t="s">
-        <v>87</v>
-      </c>
-      <c r="E33" s="61" t="s">
-        <v>82</v>
-      </c>
-      <c r="F33" s="39"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="53" t="s">
+      <c r="D53" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="C34" s="64">
-        <v>1.0</v>
-      </c>
-      <c r="D34" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="E34" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="F34" s="39"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="56"/>
-      <c r="C35" s="64">
-        <v>2.0</v>
-      </c>
-      <c r="D35" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="48"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="56"/>
-      <c r="C36" s="65">
-        <v>3.0</v>
-      </c>
-      <c r="D36" s="41" t="s">
-        <v>91</v>
-      </c>
-      <c r="E36" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="39"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="58"/>
-      <c r="C37" s="59">
-        <v>4.0</v>
-      </c>
-      <c r="D37" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="61" t="s">
-        <v>92</v>
-      </c>
-      <c r="F37" s="39"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="64">
-        <v>1.0</v>
-      </c>
-      <c r="D38" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="F38" s="39"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="56"/>
-      <c r="C39" s="64">
-        <v>2.0</v>
-      </c>
-      <c r="D39" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E39" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="39"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="56"/>
-      <c r="C40" s="65">
-        <v>3.0</v>
-      </c>
-      <c r="D40" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="E40" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="F40" s="39"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="58"/>
-      <c r="C41" s="59">
-        <v>4.0</v>
-      </c>
-      <c r="D41" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="E41" s="63" t="s">
-        <v>77</v>
-      </c>
-      <c r="F41" s="16"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="C42" s="64">
-        <v>1.0</v>
-      </c>
-      <c r="D42" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="E42" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="F42" s="39"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="56"/>
-      <c r="C43" s="64">
-        <v>2.0</v>
-      </c>
-      <c r="D43" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="E43" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="F43" s="39"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="56"/>
-      <c r="C44" s="65">
-        <v>3.0</v>
-      </c>
-      <c r="D44" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="E44" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" s="39"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="B45" s="58"/>
-      <c r="C45" s="59">
-        <v>4.0</v>
-      </c>
-      <c r="D45" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="E45" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="F45" s="16"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="B46" s="53" t="s">
-        <v>97</v>
-      </c>
-      <c r="C46" s="64">
-        <v>1.0</v>
-      </c>
-      <c r="D46" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="E46" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="F46" s="39"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="B47" s="56"/>
-      <c r="C47" s="64">
-        <v>2.0</v>
-      </c>
-      <c r="D47" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="E47" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="F47" s="39"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="B48" s="56"/>
-      <c r="C48" s="65">
-        <v>3.0</v>
-      </c>
-      <c r="D48" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="E48" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="F48" s="39"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="B49" s="58"/>
-      <c r="C49" s="59">
-        <v>4.0</v>
-      </c>
-      <c r="D49" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="E49" s="69" t="s">
-        <v>77</v>
-      </c>
-      <c r="F49" s="16"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="B50" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="C50" s="64">
-        <v>1.0</v>
-      </c>
-      <c r="D50" s="67" t="s">
-        <v>89</v>
-      </c>
-      <c r="E50" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="F50" s="39"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="B51" s="56"/>
-      <c r="C51" s="64">
-        <v>2.0</v>
-      </c>
-      <c r="D51" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E51" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" s="39"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="B52" s="56"/>
-      <c r="C52" s="65">
-        <v>3.0</v>
-      </c>
-      <c r="D52" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="E52" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="39"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="B53" s="58"/>
-      <c r="C53" s="59">
-        <v>4.0</v>
-      </c>
-      <c r="D53" s="68" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" s="70" t="s">
-        <v>99</v>
-      </c>
-      <c r="F53" s="16"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1"/>
+      <c r="E53" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="F54" s="66"/>
+    </row>
     <row r="55" ht="15.75" customHeight="1"/>
     <row r="56" ht="15.75" customHeight="1"/>
     <row r="57" ht="15.75" customHeight="1"/>
@@ -4018,7 +4329,7 @@
     <col customWidth="1" min="1" max="1" width="8.63"/>
     <col customWidth="1" min="2" max="2" width="23.88"/>
     <col customWidth="1" min="3" max="3" width="8.63"/>
-    <col customWidth="1" min="4" max="4" width="66.63"/>
+    <col customWidth="1" min="4" max="4" width="72.75"/>
     <col customWidth="1" min="5" max="5" width="89.38"/>
     <col customWidth="1" min="6" max="25" width="8.63"/>
   </cols>
@@ -4028,11 +4339,11 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D2" s="3"/>
-      <c r="E2" s="27" t="s">
-        <v>63</v>
+      <c r="E2" s="25" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -4040,10 +4351,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D3" s="3"/>
-      <c r="E3" s="27">
+      <c r="E3" s="25">
         <v>1.23456789E9</v>
       </c>
     </row>
@@ -4052,7 +4363,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -4066,920 +4377,960 @@
       <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="32">
+        <v>104</v>
+      </c>
+      <c r="C6" s="29">
         <v>1.0</v>
       </c>
-      <c r="D6" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="34" t="s">
+      <c r="D6" s="67" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="35"/>
+      <c r="E6" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7">
-      <c r="B7" s="21"/>
-      <c r="C7" s="36">
+      <c r="B7" s="20"/>
+      <c r="C7" s="32">
         <v>2.0</v>
       </c>
-      <c r="D7" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="39"/>
+      <c r="D7" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
-      <c r="B8" s="21"/>
-      <c r="C8" s="40">
+      <c r="B8" s="20"/>
+      <c r="C8" s="35">
         <v>3.0</v>
       </c>
-      <c r="D8" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="E8" s="42" t="s">
+      <c r="D8" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="39"/>
+      <c r="E8" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9">
-      <c r="B9" s="21"/>
-      <c r="C9" s="51">
+      <c r="B9" s="20"/>
+      <c r="C9" s="46">
         <v>4.0</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="20"/>
+      <c r="C10" s="46">
+        <v>5.0</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="E9" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="F9" s="39"/>
-    </row>
-    <row r="10">
-      <c r="B10" s="21"/>
-      <c r="C10" s="51">
-        <v>5.0</v>
-      </c>
-      <c r="D10" s="51" t="s">
-        <v>111</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" s="39"/>
+      <c r="F10" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11">
-      <c r="B11" s="21"/>
-      <c r="C11" s="51">
+      <c r="B11" s="20"/>
+      <c r="C11" s="46">
         <v>6.0</v>
       </c>
-      <c r="D11" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="E11" s="41" t="s">
+      <c r="D11" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="F11" s="39"/>
+      <c r="E11" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12">
-      <c r="B12" s="21"/>
-      <c r="C12" s="51">
+      <c r="B12" s="20"/>
+      <c r="C12" s="46">
         <v>7.0</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="41" t="s">
-        <v>113</v>
-      </c>
-      <c r="F12" s="39"/>
+      <c r="F12" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13">
-      <c r="B13" s="21"/>
-      <c r="C13" s="51">
+      <c r="B13" s="20"/>
+      <c r="C13" s="46">
         <v>8.0</v>
       </c>
-      <c r="D13" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="72"/>
+      <c r="D13" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14">
-      <c r="B14" s="21"/>
-      <c r="C14" s="50">
+      <c r="B14" s="20"/>
+      <c r="C14" s="45">
         <v>9.0</v>
       </c>
-      <c r="D14" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="72"/>
+      <c r="D14" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15">
-      <c r="B15" s="21"/>
-      <c r="C15" s="73">
+      <c r="B15" s="20"/>
+      <c r="C15" s="69">
         <v>10.0</v>
       </c>
-      <c r="D15" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="74"/>
+      <c r="D15" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16">
-      <c r="B16" s="21"/>
-      <c r="C16" s="73">
+      <c r="B16" s="20"/>
+      <c r="C16" s="69">
         <v>11.0</v>
       </c>
-      <c r="D16" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="74"/>
+      <c r="D16" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="58" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17">
-      <c r="B17" s="21"/>
-      <c r="C17" s="73">
+      <c r="B17" s="20"/>
+      <c r="C17" s="69">
         <v>12.0</v>
       </c>
-      <c r="D17" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="E17" s="41" t="s">
+      <c r="D17" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="74"/>
+      <c r="E17" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="70" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="18">
-      <c r="B18" s="21"/>
-      <c r="C18" s="73">
+      <c r="B18" s="20"/>
+      <c r="C18" s="69">
         <v>13.0</v>
       </c>
-      <c r="D18" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="74"/>
+      <c r="D18" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="70" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="19">
-      <c r="B19" s="21"/>
-      <c r="C19" s="73">
+      <c r="B19" s="20"/>
+      <c r="C19" s="69">
         <v>14.0</v>
       </c>
-      <c r="D19" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="74"/>
+      <c r="D19" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="70" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="20">
-      <c r="B20" s="21"/>
-      <c r="C20" s="73">
+      <c r="B20" s="20"/>
+      <c r="C20" s="69">
         <v>15.0</v>
       </c>
-      <c r="D20" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="74"/>
+      <c r="D20" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="70" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
-      <c r="B21" s="21"/>
-      <c r="C21" s="73">
+      <c r="B21" s="20"/>
+      <c r="C21" s="69">
         <v>16.0</v>
       </c>
-      <c r="D21" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="E21" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="74"/>
+      <c r="D21" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="70" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="22">
-      <c r="B22" s="21"/>
-      <c r="C22" s="73">
+      <c r="B22" s="20"/>
+      <c r="C22" s="69">
         <v>17.0</v>
       </c>
-      <c r="D22" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="E22" s="75" t="s">
+      <c r="D22" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="F22" s="74"/>
+      <c r="E22" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="70" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="23">
-      <c r="B23" s="21"/>
-      <c r="C23" s="73">
+      <c r="B23" s="20"/>
+      <c r="C23" s="69">
         <v>18.0</v>
       </c>
-      <c r="D23" s="76" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="77" t="s">
-        <v>127</v>
-      </c>
-      <c r="F23" s="74"/>
+      <c r="D23" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="70" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="24">
       <c r="B24" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C24" s="78">
+        <v>129</v>
+      </c>
+      <c r="C24" s="74">
         <v>1.0</v>
       </c>
-      <c r="D24" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" s="39"/>
+      <c r="D24" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="25">
-      <c r="B25" s="21"/>
-      <c r="C25" s="47">
+      <c r="B25" s="20"/>
+      <c r="C25" s="42">
         <v>2.0</v>
       </c>
-      <c r="D25" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="39"/>
+      <c r="D25" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="58" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="26">
-      <c r="B26" s="21"/>
-      <c r="C26" s="49">
+      <c r="B26" s="20"/>
+      <c r="C26" s="44">
         <v>3.0</v>
       </c>
-      <c r="D26" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="39"/>
+      <c r="D26" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E26" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="70" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="27">
-      <c r="B27" s="21"/>
-      <c r="C27" s="50">
+      <c r="B27" s="20"/>
+      <c r="C27" s="45">
         <v>4.0</v>
       </c>
-      <c r="D27" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="79"/>
+      <c r="D27" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E27" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="70" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="28">
-      <c r="B28" s="21"/>
-      <c r="C28" s="50">
+      <c r="B28" s="20"/>
+      <c r="C28" s="45">
         <v>5.0</v>
       </c>
-      <c r="D28" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="E28" s="41" t="s">
+      <c r="D28" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="F28" s="79"/>
+      <c r="E28" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="F28" s="70" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="29">
-      <c r="B29" s="21"/>
-      <c r="C29" s="50">
+      <c r="B29" s="20"/>
+      <c r="C29" s="45">
         <v>6.0</v>
       </c>
-      <c r="D29" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="79"/>
+      <c r="D29" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="70" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="30">
-      <c r="B30" s="21"/>
-      <c r="C30" s="50">
+      <c r="B30" s="20"/>
+      <c r="C30" s="45">
         <v>7.0</v>
       </c>
-      <c r="D30" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="E30" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F30" s="79"/>
+      <c r="D30" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="70" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="31">
-      <c r="B31" s="21"/>
-      <c r="C31" s="50">
+      <c r="B31" s="20"/>
+      <c r="C31" s="45">
         <v>8.0</v>
       </c>
-      <c r="D31" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="E31" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="79"/>
+      <c r="D31" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="70" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="32">
-      <c r="B32" s="21"/>
-      <c r="C32" s="50">
+      <c r="B32" s="20"/>
+      <c r="C32" s="45">
         <v>9.0</v>
       </c>
-      <c r="D32" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="E32" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="79"/>
+      <c r="D32" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="70" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="33">
-      <c r="B33" s="21"/>
-      <c r="C33" s="50">
+      <c r="B33" s="20"/>
+      <c r="C33" s="45">
         <v>10.0</v>
       </c>
-      <c r="D33" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="E33" s="75" t="s">
+      <c r="D33" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="F33" s="79"/>
+      <c r="E33" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="F33" s="70" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="34">
       <c r="B34" s="17"/>
-      <c r="C34" s="59">
+      <c r="C34" s="54">
         <v>11.0</v>
       </c>
-      <c r="D34" s="76" t="s">
-        <v>60</v>
-      </c>
-      <c r="E34" s="77" t="s">
-        <v>127</v>
-      </c>
-      <c r="F34" s="16"/>
+      <c r="D34" s="72" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="F34" s="70" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="B35" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="78">
+        <v>130</v>
+      </c>
+      <c r="C35" s="74">
         <v>1.0</v>
       </c>
-      <c r="D35" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="39"/>
+      <c r="D35" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="21"/>
-      <c r="C36" s="64">
+      <c r="B36" s="20"/>
+      <c r="C36" s="59">
         <v>2.0</v>
       </c>
-      <c r="D36" s="41" t="s">
+      <c r="D36" s="36" t="s">
+        <v>108</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="B37" s="20"/>
+      <c r="C37" s="59">
+        <v>3.0</v>
+      </c>
+      <c r="D37" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="B38" s="20"/>
+      <c r="C38" s="59">
+        <v>4.0</v>
+      </c>
+      <c r="D38" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" s="76" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="B39" s="20"/>
+      <c r="C39" s="61">
+        <v>5.0</v>
+      </c>
+      <c r="D39" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="E39" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="B40" s="20"/>
+      <c r="C40" s="45">
+        <v>6.0</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="B41" s="20"/>
+      <c r="C41" s="45">
+        <v>7.0</v>
+      </c>
+      <c r="D41" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E41" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="B42" s="20"/>
+      <c r="C42" s="45">
+        <v>8.0</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E42" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="F42" s="70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="B43" s="20"/>
+      <c r="C43" s="45">
+        <v>9.0</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="B44" s="20"/>
+      <c r="C44" s="45">
+        <v>10.0</v>
+      </c>
+      <c r="D44" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="E44" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="B45" s="20"/>
+      <c r="C45" s="45">
+        <v>11.0</v>
+      </c>
+      <c r="D45" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="B46" s="20"/>
+      <c r="C46" s="45">
+        <v>12.0</v>
+      </c>
+      <c r="D46" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="B47" s="17"/>
+      <c r="C47" s="45">
+        <v>13.0</v>
+      </c>
+      <c r="D47" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="E47" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="F47" s="76" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="B48" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="74">
+        <v>1.0</v>
+      </c>
+      <c r="D48" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="E48" s="78" t="s">
+        <v>137</v>
+      </c>
+      <c r="F48" s="79" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="B49" s="20"/>
+      <c r="C49" s="61">
+        <v>2.0</v>
+      </c>
+      <c r="D49" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="E49" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="B50" s="20"/>
+      <c r="C50" s="45">
+        <v>3.0</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="B51" s="20"/>
+      <c r="C51" s="45">
+        <v>4.0</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="B52" s="20"/>
+      <c r="C52" s="45">
+        <v>5.0</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E52" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="F52" s="70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="B53" s="20"/>
+      <c r="C53" s="45">
+        <v>6.0</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="B54" s="20"/>
+      <c r="C54" s="45">
+        <v>7.0</v>
+      </c>
+      <c r="D54" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="B55" s="20"/>
+      <c r="C55" s="45">
+        <v>8.0</v>
+      </c>
+      <c r="D55" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="E55" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="B56" s="20"/>
+      <c r="C56" s="45">
+        <v>9.0</v>
+      </c>
+      <c r="D56" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="E56" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="B57" s="17"/>
+      <c r="C57" s="45">
+        <v>10.0</v>
+      </c>
+      <c r="D57" s="77" t="s">
+        <v>126</v>
+      </c>
+      <c r="E57" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="F57" s="76" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="B58" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" s="74">
+        <v>1.0</v>
+      </c>
+      <c r="D58" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="E36" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="F36" s="39"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="21"/>
-      <c r="C37" s="64">
+      <c r="E58" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="B59" s="20"/>
+      <c r="C59" s="42">
+        <v>2.0</v>
+      </c>
+      <c r="D59" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="E59" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="B60" s="20"/>
+      <c r="C60" s="44">
         <v>3.0</v>
       </c>
-      <c r="D37" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="E37" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="F37" s="39"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="21"/>
-      <c r="C38" s="64">
+      <c r="D60" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E60" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="B61" s="20"/>
+      <c r="C61" s="45">
         <v>4.0</v>
       </c>
-      <c r="D38" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="E38" s="80" t="s">
-        <v>131</v>
-      </c>
-      <c r="F38" s="39"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="21"/>
-      <c r="C39" s="64">
+      <c r="D61" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E61" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="B62" s="20"/>
+      <c r="C62" s="45">
         <v>5.0</v>
       </c>
-      <c r="D39" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="E39" s="42" t="s">
-        <v>108</v>
-      </c>
-      <c r="F39" s="39"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="21"/>
-      <c r="C40" s="65">
+      <c r="D62" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E62" s="36" t="s">
+        <v>121</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="B63" s="20"/>
+      <c r="C63" s="45">
         <v>6.0</v>
       </c>
-      <c r="D40" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="E40" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="39"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="21"/>
-      <c r="C41" s="50">
+      <c r="D63" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="E63" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="B64" s="20"/>
+      <c r="C64" s="45">
         <v>7.0</v>
       </c>
-      <c r="D41" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="E41" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="39"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="21"/>
-      <c r="C42" s="50">
+      <c r="D64" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="E64" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="B65" s="20"/>
+      <c r="C65" s="45">
         <v>8.0</v>
       </c>
-      <c r="D42" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="E42" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" s="79"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="21"/>
-      <c r="C43" s="50">
+      <c r="D65" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="E65" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" s="16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="B66" s="20"/>
+      <c r="C66" s="45">
         <v>9.0</v>
       </c>
-      <c r="D43" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="E43" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="F43" s="79"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="21"/>
-      <c r="C44" s="50">
+      <c r="D66" s="80" t="s">
+        <v>139</v>
+      </c>
+      <c r="E66" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="F66" s="81" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="B67" s="17"/>
+      <c r="C67" s="38">
         <v>10.0</v>
       </c>
-      <c r="D44" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="E44" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F44" s="79"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="B45" s="21"/>
-      <c r="C45" s="50">
-        <v>11.0</v>
-      </c>
-      <c r="D45" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="E45" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" s="79"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="B46" s="21"/>
-      <c r="C46" s="50">
-        <v>12.0</v>
-      </c>
-      <c r="D46" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="E46" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46" s="79"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="B47" s="21"/>
-      <c r="C47" s="50">
-        <v>13.0</v>
-      </c>
-      <c r="D47" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="E47" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47" s="79"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="B48" s="21"/>
-      <c r="C48" s="50">
-        <v>14.0</v>
-      </c>
-      <c r="D48" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="E48" s="75" t="s">
+      <c r="D67" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="F48" s="79"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="B49" s="17"/>
-      <c r="C49" s="59">
-        <v>15.0</v>
-      </c>
-      <c r="D49" s="76" t="s">
-        <v>60</v>
-      </c>
-      <c r="E49" s="77" t="s">
-        <v>127</v>
-      </c>
-      <c r="F49" s="16"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="B50" s="12" t="s">
+      <c r="E67" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="F67" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="C50" s="78">
-        <v>1.0</v>
-      </c>
-      <c r="D50" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="E50" s="80" t="s">
-        <v>135</v>
-      </c>
-      <c r="F50" s="39"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="B51" s="21"/>
-      <c r="C51" s="64">
-        <v>2.0</v>
-      </c>
-      <c r="D51" s="81" t="s">
-        <v>136</v>
-      </c>
-      <c r="E51" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" s="39"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="B52" s="21"/>
-      <c r="C52" s="65">
-        <v>3.0</v>
-      </c>
-      <c r="D52" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="E52" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F52" s="39"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="B53" s="21"/>
-      <c r="C53" s="50">
-        <v>4.0</v>
-      </c>
-      <c r="D53" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="E53" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F53" s="39"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="B54" s="21"/>
-      <c r="C54" s="50">
-        <v>5.0</v>
-      </c>
-      <c r="D54" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="E54" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F54" s="79"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="B55" s="21"/>
-      <c r="C55" s="50">
-        <v>6.0</v>
-      </c>
-      <c r="D55" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="E55" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="F55" s="79"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="B56" s="21"/>
-      <c r="C56" s="50">
-        <v>7.0</v>
-      </c>
-      <c r="D56" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="E56" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F56" s="79"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="B57" s="21"/>
-      <c r="C57" s="50">
-        <v>8.0</v>
-      </c>
-      <c r="D57" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="E57" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57" s="79"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="B58" s="21"/>
-      <c r="C58" s="50">
-        <v>9.0</v>
-      </c>
-      <c r="D58" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="E58" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F58" s="79"/>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="B59" s="21"/>
-      <c r="C59" s="50">
-        <v>10.0</v>
-      </c>
-      <c r="D59" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="E59" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F59" s="79"/>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="B60" s="21"/>
-      <c r="C60" s="50">
-        <v>11.0</v>
-      </c>
-      <c r="D60" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="E60" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="F60" s="79"/>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="B61" s="17"/>
-      <c r="C61" s="59">
-        <v>12.0</v>
-      </c>
-      <c r="D61" s="76" t="s">
-        <v>60</v>
-      </c>
-      <c r="E61" s="77" t="s">
-        <v>127</v>
-      </c>
-      <c r="F61" s="16"/>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="B62" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C62" s="78">
-        <v>1.0</v>
-      </c>
-      <c r="D62" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="E62" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="F62" s="39"/>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="B63" s="21"/>
-      <c r="C63" s="47">
-        <v>2.0</v>
-      </c>
-      <c r="D63" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="E63" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F63" s="39"/>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="B64" s="21"/>
-      <c r="C64" s="49">
-        <v>3.0</v>
-      </c>
-      <c r="D64" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="E64" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F64" s="39"/>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="B65" s="21"/>
-      <c r="C65" s="50">
-        <v>4.0</v>
-      </c>
-      <c r="D65" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="E65" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F65" s="79"/>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="B66" s="21"/>
-      <c r="C66" s="50">
-        <v>5.0</v>
-      </c>
-      <c r="D66" s="41" t="s">
-        <v>119</v>
-      </c>
-      <c r="E66" s="41" t="s">
-        <v>120</v>
-      </c>
-      <c r="F66" s="79"/>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="B67" s="21"/>
-      <c r="C67" s="50">
-        <v>6.0</v>
-      </c>
-      <c r="D67" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="E67" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F67" s="79"/>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="B68" s="21"/>
-      <c r="C68" s="50">
-        <v>7.0</v>
-      </c>
-      <c r="D68" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="E68" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F68" s="79"/>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="B69" s="21"/>
-      <c r="C69" s="50">
-        <v>8.0</v>
-      </c>
-      <c r="D69" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="E69" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F69" s="79"/>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="B70" s="21"/>
-      <c r="C70" s="50">
-        <v>9.0</v>
-      </c>
-      <c r="D70" s="57" t="s">
-        <v>138</v>
-      </c>
-      <c r="E70" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="F70" s="79"/>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="B71" s="21"/>
-      <c r="C71" s="50">
-        <v>10.0</v>
-      </c>
-      <c r="D71" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="E71" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="F71" s="79"/>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="B72" s="21"/>
-      <c r="C72" s="50">
-        <v>11.0</v>
-      </c>
-      <c r="D72" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="E72" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F72" s="79"/>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="B73" s="21"/>
-      <c r="C73" s="50">
-        <v>12.0</v>
-      </c>
-      <c r="D73" s="41" t="s">
-        <v>125</v>
-      </c>
-      <c r="E73" s="75" t="s">
-        <v>126</v>
-      </c>
-      <c r="F73" s="79"/>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="B74" s="17"/>
-      <c r="C74" s="59">
-        <v>13.0</v>
-      </c>
-      <c r="D74" s="76" t="s">
-        <v>60</v>
-      </c>
-      <c r="E74" s="77" t="s">
-        <v>127</v>
-      </c>
-      <c r="F74" s="16"/>
-    </row>
+    </row>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
     <row r="75" ht="15.75" customHeight="1"/>
     <row r="76" ht="15.75" customHeight="1"/>
     <row r="77" ht="15.75" customHeight="1"/>
@@ -5896,13 +6247,6 @@
     <row r="988" ht="15.75" customHeight="1"/>
     <row r="989" ht="15.75" customHeight="1"/>
     <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="C2:D2"/>
@@ -5910,9 +6254,9 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B6:B23"/>
     <mergeCell ref="B24:B34"/>
-    <mergeCell ref="B35:B49"/>
-    <mergeCell ref="B50:B61"/>
-    <mergeCell ref="B62:B74"/>
+    <mergeCell ref="B35:B47"/>
+    <mergeCell ref="B48:B57"/>
+    <mergeCell ref="B58:B67"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -5942,7 +6286,7 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="83" t="s">
         <v>141</v>
       </c>
       <c r="D2" s="3"/>
@@ -5951,7 +6295,7 @@
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="84" t="s">
         <v>142</v>
       </c>
       <c r="D3" s="3"/>
@@ -5960,13 +6304,13 @@
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -5975,7 +6319,7 @@
       <c r="D5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="27" t="s">
         <v>8</v>
       </c>
       <c r="F5" s="11" t="s">
@@ -5986,7 +6330,7 @@
       <c r="B6" s="85" t="s">
         <v>144</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="49">
         <v>1.0</v>
       </c>
       <c r="D6" s="86" t="s">
@@ -5995,13 +6339,15 @@
       <c r="E6" s="87" t="s">
         <v>146</v>
       </c>
-      <c r="F6" s="16"/>
+      <c r="F6" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="85" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="54">
+      <c r="C7" s="49">
         <v>1.0</v>
       </c>
       <c r="D7" s="86" t="s">
@@ -6010,13 +6356,15 @@
       <c r="E7" s="87" t="s">
         <v>149</v>
       </c>
-      <c r="F7" s="16"/>
+      <c r="F7" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="85" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="49">
         <v>1.0</v>
       </c>
       <c r="D8" s="86" t="s">
@@ -6025,7 +6373,9 @@
       <c r="E8" s="87" t="s">
         <v>152</v>
       </c>
-      <c r="F8" s="16"/>
+      <c r="F8" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9">
       <c r="B9" s="85" t="s">
@@ -6040,50 +6390,58 @@
       <c r="E9" s="89" t="s">
         <v>155</v>
       </c>
-      <c r="F9" s="16"/>
+      <c r="F9" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10">
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="49">
         <v>1.0</v>
       </c>
-      <c r="D10" s="90" t="s">
+      <c r="D10" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="E10" s="90" t="s">
+      <c r="E10" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="F10" s="79"/>
+      <c r="F10" s="90" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11">
-      <c r="B11" s="58"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="91">
         <v>2.0</v>
       </c>
-      <c r="D11" s="76" t="s">
-        <v>60</v>
+      <c r="D11" s="72" t="s">
+        <v>61</v>
       </c>
       <c r="E11" s="92" t="s">
         <v>159</v>
       </c>
-      <c r="F11" s="93"/>
+      <c r="F11" s="77" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12">
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="93" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="95">
+      <c r="C12" s="94">
         <v>1.0</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="95" t="s">
         <v>161</v>
       </c>
       <c r="E12" s="92" t="s">
         <v>162</v>
       </c>
-      <c r="F12" s="16"/>
+      <c r="F12" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6118,7 +6476,7 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="83" t="s">
         <v>163</v>
       </c>
       <c r="D2" s="3"/>
@@ -6127,7 +6485,7 @@
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="84" t="s">
         <v>164</v>
       </c>
       <c r="D3" s="3"/>
@@ -6136,13 +6494,13 @@
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="7" t="s">
         <v>143</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -6151,200 +6509,228 @@
       <c r="D5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="96" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="48" t="s">
         <v>165</v>
       </c>
       <c r="C6" s="97">
         <v>1.0</v>
       </c>
-      <c r="D6" s="98" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="99" t="s">
+      <c r="D6" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="35"/>
+      <c r="E6" s="70" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="70" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7">
-      <c r="B7" s="56"/>
-      <c r="C7" s="100">
+      <c r="B7" s="51"/>
+      <c r="C7" s="98">
         <v>2.0</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="E7" s="101" t="s">
+      <c r="E7" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="F7" s="35"/>
+      <c r="F7" s="70" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
-      <c r="B8" s="56"/>
-      <c r="C8" s="51">
+      <c r="B8" s="51"/>
+      <c r="C8" s="46">
         <v>3.0</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="E8" s="102" t="s">
+      <c r="E8" s="100" t="s">
         <v>169</v>
       </c>
-      <c r="F8" s="35"/>
+      <c r="F8" s="70" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9">
-      <c r="B9" s="56"/>
-      <c r="C9" s="51">
+      <c r="B9" s="51"/>
+      <c r="C9" s="46">
         <v>4.0</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="E9" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="35"/>
+      <c r="E9" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="70" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10">
-      <c r="B10" s="56"/>
-      <c r="C10" s="51">
+      <c r="B10" s="51"/>
+      <c r="C10" s="46">
         <v>5.0</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="101"/>
+      <c r="C11" s="38">
+        <v>6.0</v>
+      </c>
+      <c r="D11" s="102" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" s="70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="104">
+        <v>1.0</v>
+      </c>
+      <c r="D12" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="90" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="41" t="s">
+      <c r="F12" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="51"/>
+      <c r="C13" s="105">
+        <v>2.0</v>
+      </c>
+      <c r="D13" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="35"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="103"/>
-      <c r="C11" s="43">
-        <v>6.0</v>
-      </c>
-      <c r="D11" s="104" t="s">
+      <c r="E13" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="105" t="s">
+      <c r="F13" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="101"/>
+      <c r="C14" s="106">
+        <v>3.0</v>
+      </c>
+      <c r="D14" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="35"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="53" t="s">
-        <v>171</v>
-      </c>
-      <c r="C12" s="106">
+      <c r="E14" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="49">
         <v>1.0</v>
       </c>
-      <c r="D12" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="98" t="s">
+      <c r="D15" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="51"/>
+      <c r="C16" s="42">
+        <v>2.0</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="36" t="s">
+        <v>175</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="51"/>
+      <c r="C17" s="42">
+        <v>3.0</v>
+      </c>
+      <c r="D17" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="F12" s="39"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="56"/>
-      <c r="C13" s="107">
-        <v>2.0</v>
-      </c>
-      <c r="D13" s="41" t="s">
+      <c r="E17" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="F17" s="31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="51"/>
+      <c r="C18" s="42">
+        <v>4.0</v>
+      </c>
+      <c r="D18" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="39"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="103"/>
-      <c r="C14" s="108">
-        <v>3.0</v>
-      </c>
-      <c r="D14" s="36" t="s">
+      <c r="E18" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="109" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="39"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="53" t="s">
-        <v>172</v>
-      </c>
-      <c r="C15" s="54">
-        <v>1.0</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>173</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="39"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="56"/>
-      <c r="C16" s="47">
-        <v>2.0</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="E16" s="41" t="s">
-        <v>175</v>
-      </c>
-      <c r="F16" s="39"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="56"/>
-      <c r="C17" s="47">
-        <v>3.0</v>
-      </c>
-      <c r="D17" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="39"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="56"/>
-      <c r="C18" s="47">
-        <v>4.0</v>
-      </c>
-      <c r="D18" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="39"/>
+      <c r="F18" s="31" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="19">
-      <c r="B19" s="58"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="91">
         <v>5.0</v>
       </c>
-      <c r="D19" s="104" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="105" t="s">
+      <c r="D19" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="16"/>
+      <c r="E19" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="20" ht="15.75" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -7317,109 +7703,151 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="83" t="s">
         <v>176</v>
       </c>
-      <c r="D2" s="110"/>
+      <c r="D2" s="108"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="C3" s="84" t="s">
         <v>177</v>
       </c>
-      <c r="D3" s="110"/>
+      <c r="D3" s="108"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4">
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="109" t="s">
         <v>178</v>
       </c>
-      <c r="D4" s="110"/>
+      <c r="D4" s="108"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="112"/>
-      <c r="F5" s="29" t="s">
+      <c r="E5" s="111"/>
+      <c r="F5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="96" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="28" t="s">
         <v>179</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="49">
         <v>1.0</v>
       </c>
-      <c r="D6" s="90" t="s">
+      <c r="D6" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="E6" s="113"/>
-      <c r="F6" s="90" t="s">
+      <c r="E6" s="112"/>
+      <c r="F6" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="G6" s="39"/>
+      <c r="G6" s="31" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7">
-      <c r="B7" s="114"/>
-      <c r="C7" s="47">
+      <c r="B7" s="113"/>
+      <c r="C7" s="42">
         <v>2.0</v>
       </c>
-      <c r="D7" s="42" t="s">
+      <c r="D7" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="E7" s="115"/>
-      <c r="F7" s="42" t="s">
+      <c r="E7" s="114"/>
+      <c r="F7" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="G7" s="116"/>
+      <c r="G7" s="36" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="49">
         <v>1.0</v>
       </c>
-      <c r="D8" s="90" t="s">
+      <c r="D8" s="68" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="113"/>
-      <c r="F8" s="90" t="s">
+      <c r="E8" s="112"/>
+      <c r="F8" s="68" t="s">
         <v>181</v>
       </c>
-      <c r="G8" s="39"/>
+      <c r="G8" s="31" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9">
-      <c r="B9" s="58"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="91">
         <v>2.0</v>
       </c>
-      <c r="D9" s="117" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="118"/>
-      <c r="F9" s="117" t="s">
+      <c r="D9" s="115" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="116"/>
+      <c r="F9" s="115" t="s">
         <v>185</v>
       </c>
-      <c r="G9" s="93"/>
+      <c r="G9" s="77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" ht="30.0" customHeight="1">
+      <c r="B10" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="C10" s="49">
+        <v>1.0</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>187</v>
+      </c>
+      <c r="E10" s="112"/>
+      <c r="F10" s="74" t="s">
+        <v>188</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="52.5" customHeight="1">
+      <c r="B11" s="53"/>
+      <c r="C11" s="91">
+        <v>2.0</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="E11" s="116"/>
+      <c r="F11" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="G11" s="38" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" ht="15.75" customHeight="1"/>
     <row r="17" ht="15.75" customHeight="1"/>
@@ -8402,16 +8830,19 @@
     <row r="994" ht="15.75" customHeight="1"/>
     <row r="995" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B8:B9"/>
     <mergeCell ref="D9:E9"/>
   </mergeCells>
   <printOptions/>
@@ -8443,8 +8874,8 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="82" t="s">
-        <v>186</v>
+      <c r="C2" s="83" t="s">
+        <v>191</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -8452,8 +8883,8 @@
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="83" t="s">
-        <v>187</v>
+      <c r="C3" s="84" t="s">
+        <v>192</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -8461,83 +8892,91 @@
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="119" t="s">
-        <v>188</v>
+      <c r="C4" s="117" t="s">
+        <v>193</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="96" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="53" t="s">
-        <v>189</v>
-      </c>
-      <c r="C6" s="54">
+      <c r="B6" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" s="49">
         <v>1.0</v>
       </c>
-      <c r="D6" s="90" t="s">
-        <v>190</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="72"/>
+      <c r="D6" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="118" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7">
-      <c r="B7" s="58"/>
-      <c r="C7" s="59">
+      <c r="B7" s="53"/>
+      <c r="C7" s="54">
         <v>2.0</v>
       </c>
-      <c r="D7" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="105" t="s">
-        <v>191</v>
-      </c>
-      <c r="F7" s="120"/>
+      <c r="D7" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="103" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" s="119" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
-      <c r="B8" s="53" t="s">
-        <v>192</v>
-      </c>
-      <c r="C8" s="54">
+      <c r="B8" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="49">
         <v>1.0</v>
       </c>
-      <c r="D8" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="E8" s="121" t="s">
-        <v>194</v>
-      </c>
-      <c r="F8" s="39"/>
+      <c r="D8" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="E8" s="120" t="s">
+        <v>199</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9">
-      <c r="B9" s="58"/>
+      <c r="B9" s="53"/>
       <c r="C9" s="91">
         <v>2.0</v>
       </c>
-      <c r="D9" s="76" t="s">
-        <v>195</v>
-      </c>
-      <c r="E9" s="122" t="s">
-        <v>196</v>
-      </c>
-      <c r="F9" s="93"/>
+      <c r="D9" s="72" t="s">
+        <v>200</v>
+      </c>
+      <c r="E9" s="121" t="s">
+        <v>201</v>
+      </c>
+      <c r="F9" s="77" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" ht="15.75" customHeight="1"/>
     <row r="11" ht="15.75" customHeight="1"/>
@@ -9550,7 +9989,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="D2" s="3"/>
     </row>
@@ -9558,8 +9997,8 @@
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="83" t="s">
-        <v>187</v>
+      <c r="C3" s="84" t="s">
+        <v>192</v>
       </c>
       <c r="D3" s="3"/>
     </row>
@@ -9567,525 +10006,692 @@
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="119" t="s">
-        <v>188</v>
+      <c r="C4" s="117" t="s">
+        <v>193</v>
       </c>
       <c r="D4" s="3"/>
     </row>
     <row r="5">
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="29" t="s">
+      <c r="D5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="96" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="C6" s="54">
+      <c r="B6" s="48" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" s="49">
         <v>1.0</v>
       </c>
-      <c r="D6" s="90" t="s">
-        <v>199</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="72"/>
+      <c r="D6" s="68" t="s">
+        <v>204</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="118" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7">
-      <c r="B7" s="56"/>
-      <c r="C7" s="40">
+      <c r="B7" s="51"/>
+      <c r="C7" s="35">
         <v>2.0</v>
       </c>
-      <c r="D7" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="123"/>
+      <c r="D7" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="100" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8">
-      <c r="B8" s="56"/>
-      <c r="C8" s="65">
+      <c r="B8" s="51"/>
+      <c r="C8" s="61">
         <v>3.0</v>
       </c>
-      <c r="D8" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="123"/>
+      <c r="D8" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="100" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9">
-      <c r="B9" s="56"/>
-      <c r="C9" s="65">
+      <c r="B9" s="51"/>
+      <c r="C9" s="61">
         <v>4.0</v>
       </c>
-      <c r="D9" s="42" t="s">
-        <v>202</v>
-      </c>
-      <c r="E9" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="123"/>
+      <c r="D9" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="100" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10">
-      <c r="B10" s="56"/>
-      <c r="C10" s="65">
+      <c r="B10" s="51"/>
+      <c r="C10" s="61">
         <v>5.0</v>
       </c>
-      <c r="D10" s="42" t="s">
-        <v>203</v>
-      </c>
-      <c r="E10" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="123"/>
+      <c r="D10" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="100" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11">
-      <c r="B11" s="56"/>
-      <c r="C11" s="65">
+      <c r="B11" s="51"/>
+      <c r="C11" s="61">
         <v>6.0</v>
       </c>
-      <c r="D11" s="65" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="41" t="s">
+      <c r="D11" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="F11" s="100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="53"/>
+      <c r="C12" s="45">
+        <v>7.0</v>
+      </c>
+      <c r="D12" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="C13" s="49">
+        <v>1.0</v>
+      </c>
+      <c r="D13" s="68" t="s">
+        <v>211</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="51"/>
+      <c r="C14" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="51"/>
+      <c r="C15" s="61">
+        <v>3.0</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="51"/>
+      <c r="C16" s="61">
+        <v>4.0</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="51"/>
+      <c r="C17" s="61">
+        <v>5.0</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="53"/>
+      <c r="C18" s="54">
+        <v>6.0</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="77" t="s">
+        <v>216</v>
+      </c>
+      <c r="F18" s="119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="C19" s="49">
+        <v>1.0</v>
+      </c>
+      <c r="D19" s="68" t="s">
         <v>204</v>
       </c>
-      <c r="F11" s="123"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="58"/>
-      <c r="C12" s="50">
-        <v>7.0</v>
-      </c>
-      <c r="D12" s="117" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="77" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" s="124"/>
-    </row>
-    <row r="13">
-      <c r="B13" s="53" t="s">
+      <c r="E19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="51"/>
+      <c r="C20" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="51"/>
+      <c r="C21" s="61">
+        <v>3.0</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="51"/>
+      <c r="C22" s="61">
+        <v>4.0</v>
+      </c>
+      <c r="D22" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="E22" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="51"/>
+      <c r="C23" s="61">
+        <v>5.0</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="E23" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="53"/>
+      <c r="C24" s="54">
+        <v>6.0</v>
+      </c>
+      <c r="D24" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="77" t="s">
+        <v>218</v>
+      </c>
+      <c r="F24" s="119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="48" t="s">
+        <v>219</v>
+      </c>
+      <c r="C25" s="49">
+        <v>1.0</v>
+      </c>
+      <c r="D25" s="68" t="s">
+        <v>204</v>
+      </c>
+      <c r="E25" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="51"/>
+      <c r="C26" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="D26" s="37" t="s">
         <v>205</v>
       </c>
-      <c r="C13" s="54">
+      <c r="E26" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="51"/>
+      <c r="C27" s="61">
+        <v>3.0</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>213</v>
+      </c>
+      <c r="E27" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="51"/>
+      <c r="C28" s="61">
+        <v>4.0</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="E28" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="51"/>
+      <c r="C29" s="61">
+        <v>5.0</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F29" s="122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="53"/>
+      <c r="C30" s="54">
+        <v>6.0</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="77" t="s">
+        <v>220</v>
+      </c>
+      <c r="F30" s="119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="C31" s="49">
         <v>1.0</v>
       </c>
-      <c r="D13" s="90" t="s">
+      <c r="D31" s="68" t="s">
+        <v>204</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" s="51"/>
+      <c r="C32" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="D32" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="E32" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="51"/>
+      <c r="C33" s="61">
+        <v>3.0</v>
+      </c>
+      <c r="D33" s="37" t="s">
         <v>206</v>
       </c>
-      <c r="E13" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="F13" s="72"/>
-    </row>
-    <row r="14">
-      <c r="B14" s="56"/>
-      <c r="C14" s="40">
+      <c r="E33" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="51"/>
+      <c r="C34" s="61">
+        <v>4.0</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="E34" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F34" s="122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="51"/>
+      <c r="C35" s="61">
+        <v>5.0</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="E35" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F35" s="122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="53"/>
+      <c r="C36" s="54">
+        <v>6.0</v>
+      </c>
+      <c r="D36" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="77" t="s">
+        <v>222</v>
+      </c>
+      <c r="F36" s="119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="C37" s="49">
+        <v>1.0</v>
+      </c>
+      <c r="D37" s="68" t="s">
+        <v>204</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="51"/>
+      <c r="C38" s="35">
         <v>2.0</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D38" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="E38" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="51"/>
+      <c r="C39" s="61">
+        <v>3.0</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="E39" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="51"/>
+      <c r="C40" s="61">
+        <v>4.0</v>
+      </c>
+      <c r="D40" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="E14" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="123"/>
-    </row>
-    <row r="15">
-      <c r="B15" s="56"/>
-      <c r="C15" s="65">
+      <c r="E40" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="51"/>
+      <c r="C41" s="61">
+        <v>5.0</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="E41" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F41" s="122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" s="53"/>
+      <c r="C42" s="54">
+        <v>6.0</v>
+      </c>
+      <c r="D42" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="E42" s="77" t="s">
+        <v>224</v>
+      </c>
+      <c r="F42" s="119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="48" t="s">
+        <v>225</v>
+      </c>
+      <c r="C43" s="49">
+        <v>1.0</v>
+      </c>
+      <c r="D43" s="74" t="s">
+        <v>226</v>
+      </c>
+      <c r="E43" s="123" t="s">
+        <v>227</v>
+      </c>
+      <c r="F43" s="124" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="51"/>
+      <c r="C44" s="35">
+        <v>2.0</v>
+      </c>
+      <c r="D44" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="E44" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="51"/>
+      <c r="C45" s="61">
         <v>3.0</v>
       </c>
-      <c r="D15" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="E15" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="123"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="56"/>
-      <c r="C16" s="65">
+      <c r="D45" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="E45" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="51"/>
+      <c r="C46" s="61">
         <v>4.0</v>
       </c>
-      <c r="D16" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="E16" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="123"/>
-    </row>
-    <row r="17">
-      <c r="B17" s="56"/>
-      <c r="C17" s="65">
+      <c r="D46" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="E46" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="51"/>
+      <c r="C47" s="61">
         <v>5.0</v>
       </c>
-      <c r="D17" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="E17" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="123"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="58"/>
-      <c r="C18" s="59">
+      <c r="D47" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="E47" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F47" s="122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="53"/>
+      <c r="C48" s="54">
         <v>6.0</v>
       </c>
-      <c r="D18" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="125" t="s">
-        <v>211</v>
-      </c>
-      <c r="F18" s="120"/>
-    </row>
-    <row r="19">
-      <c r="B19" s="53" t="s">
-        <v>212</v>
-      </c>
-      <c r="C19" s="54">
-        <v>1.0</v>
-      </c>
-      <c r="D19" s="90" t="s">
-        <v>199</v>
-      </c>
-      <c r="E19" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="72"/>
-    </row>
-    <row r="20">
-      <c r="B20" s="56"/>
-      <c r="C20" s="40">
-        <v>2.0</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="E20" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="123"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="56"/>
-      <c r="C21" s="65">
-        <v>3.0</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="E21" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="123"/>
-    </row>
-    <row r="22">
-      <c r="B22" s="56"/>
-      <c r="C22" s="65">
-        <v>4.0</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="E22" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="123"/>
-    </row>
-    <row r="23">
-      <c r="B23" s="56"/>
-      <c r="C23" s="65">
-        <v>5.0</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="E23" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="123"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="58"/>
-      <c r="C24" s="59">
-        <v>6.0</v>
-      </c>
-      <c r="D24" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="E24" s="125" t="s">
-        <v>213</v>
-      </c>
-      <c r="F24" s="120"/>
-    </row>
-    <row r="25">
-      <c r="B25" s="53" t="s">
-        <v>214</v>
-      </c>
-      <c r="C25" s="54">
-        <v>1.0</v>
-      </c>
-      <c r="D25" s="90" t="s">
-        <v>199</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F25" s="72"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="56"/>
-      <c r="C26" s="40">
-        <v>2.0</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="E26" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="F26" s="123"/>
-    </row>
-    <row r="27">
-      <c r="B27" s="56"/>
-      <c r="C27" s="65">
-        <v>3.0</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>208</v>
-      </c>
-      <c r="E27" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" s="123"/>
-    </row>
-    <row r="28">
-      <c r="B28" s="56"/>
-      <c r="C28" s="65">
-        <v>4.0</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="E28" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="123"/>
-    </row>
-    <row r="29">
-      <c r="B29" s="56"/>
-      <c r="C29" s="65">
-        <v>5.0</v>
-      </c>
-      <c r="D29" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="E29" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" s="123"/>
-    </row>
-    <row r="30">
-      <c r="B30" s="58"/>
-      <c r="C30" s="59">
-        <v>6.0</v>
-      </c>
-      <c r="D30" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="E30" s="125" t="s">
-        <v>215</v>
-      </c>
-      <c r="F30" s="120"/>
-    </row>
-    <row r="31">
-      <c r="B31" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="C31" s="54">
-        <v>1.0</v>
-      </c>
-      <c r="D31" s="90" t="s">
-        <v>199</v>
-      </c>
-      <c r="E31" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="72"/>
-    </row>
-    <row r="32">
-      <c r="B32" s="56"/>
-      <c r="C32" s="40">
-        <v>2.0</v>
-      </c>
-      <c r="D32" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="E32" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" s="123"/>
-    </row>
-    <row r="33">
-      <c r="B33" s="56"/>
-      <c r="C33" s="65">
-        <v>3.0</v>
-      </c>
-      <c r="D33" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="E33" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="123"/>
-    </row>
-    <row r="34">
-      <c r="B34" s="56"/>
-      <c r="C34" s="65">
-        <v>4.0</v>
-      </c>
-      <c r="D34" s="42" t="s">
-        <v>209</v>
-      </c>
-      <c r="E34" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" s="123"/>
-    </row>
-    <row r="35">
-      <c r="B35" s="56"/>
-      <c r="C35" s="65">
-        <v>5.0</v>
-      </c>
-      <c r="D35" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="123"/>
-    </row>
-    <row r="36">
-      <c r="B36" s="58"/>
-      <c r="C36" s="59">
-        <v>6.0</v>
-      </c>
-      <c r="D36" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="E36" s="125" t="s">
-        <v>217</v>
-      </c>
-      <c r="F36" s="120"/>
-    </row>
-    <row r="37">
-      <c r="B37" s="53" t="s">
-        <v>218</v>
-      </c>
-      <c r="C37" s="54">
-        <v>1.0</v>
-      </c>
-      <c r="D37" s="90" t="s">
-        <v>199</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F37" s="72"/>
-    </row>
-    <row r="38">
-      <c r="B38" s="56"/>
-      <c r="C38" s="40">
-        <v>2.0</v>
-      </c>
-      <c r="D38" s="42" t="s">
-        <v>200</v>
-      </c>
-      <c r="E38" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="F38" s="123"/>
-    </row>
-    <row r="39">
-      <c r="B39" s="56"/>
-      <c r="C39" s="65">
-        <v>3.0</v>
-      </c>
-      <c r="D39" s="42" t="s">
-        <v>201</v>
-      </c>
-      <c r="E39" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="123"/>
-    </row>
-    <row r="40">
-      <c r="B40" s="56"/>
-      <c r="C40" s="65">
-        <v>4.0</v>
-      </c>
-      <c r="D40" s="42" t="s">
-        <v>202</v>
-      </c>
-      <c r="E40" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="123"/>
-    </row>
-    <row r="41">
-      <c r="B41" s="56"/>
-      <c r="C41" s="65">
-        <v>5.0</v>
-      </c>
-      <c r="D41" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="E41" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="F41" s="123"/>
-    </row>
-    <row r="42">
-      <c r="B42" s="58"/>
-      <c r="C42" s="59">
-        <v>6.0</v>
-      </c>
-      <c r="D42" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="E42" s="125" t="s">
-        <v>219</v>
-      </c>
-      <c r="F42" s="120"/>
+      <c r="D48" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="77" t="s">
+        <v>224</v>
+      </c>
+      <c r="F48" s="119" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
     <mergeCell ref="B31:B36"/>
     <mergeCell ref="B37:B42"/>
+    <mergeCell ref="B43:B48"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
@@ -10096,4 +10702,1324 @@
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="8.63"/>
+    <col customWidth="1" min="2" max="2" width="23.75"/>
+    <col customWidth="1" min="3" max="3" width="8.63"/>
+    <col customWidth="1" min="4" max="4" width="61.63"/>
+    <col customWidth="1" min="5" max="5" width="79.13"/>
+    <col customWidth="1" min="6" max="25" width="8.63"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="B3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="109"/>
+      <c r="D4" s="3"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="24.75" customHeight="1">
+      <c r="B6" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C6" s="49">
+        <v>1.0</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="E6" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="24.75" customHeight="1">
+      <c r="B7" s="20"/>
+      <c r="C7" s="59">
+        <v>2.0</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="E7" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" ht="24.75" customHeight="1">
+      <c r="B8" s="20"/>
+      <c r="C8" s="59">
+        <v>3.0</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" ht="24.75" customHeight="1">
+      <c r="B9" s="20"/>
+      <c r="C9" s="59">
+        <v>4.0</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="E9" s="59" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" ht="24.75" customHeight="1">
+      <c r="B10" s="20"/>
+      <c r="C10" s="61">
+        <v>5.0</v>
+      </c>
+      <c r="D10" s="61" t="s">
+        <v>235</v>
+      </c>
+      <c r="E10" s="125" t="s">
+        <v>236</v>
+      </c>
+      <c r="F10" s="126" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="24.75" customHeight="1">
+      <c r="B11" s="20"/>
+      <c r="C11" s="61">
+        <v>6.0</v>
+      </c>
+      <c r="D11" s="61" t="s">
+        <v>237</v>
+      </c>
+      <c r="E11" s="125" t="s">
+        <v>238</v>
+      </c>
+      <c r="F11" s="126" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="17"/>
+      <c r="C12" s="45">
+        <v>7.0</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>239</v>
+      </c>
+      <c r="E12" s="127" t="s">
+        <v>240</v>
+      </c>
+      <c r="F12" s="128" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" ht="79.5" customHeight="1">
+      <c r="B13" s="129" t="s">
+        <v>241</v>
+      </c>
+      <c r="C13" s="94">
+        <v>1.0</v>
+      </c>
+      <c r="D13" s="130" t="s">
+        <v>237</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" ht="66.75" customHeight="1">
+      <c r="B14" s="129" t="s">
+        <v>242</v>
+      </c>
+      <c r="C14" s="49">
+        <v>1.0</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="E14" s="123" t="s">
+        <v>227</v>
+      </c>
+      <c r="F14" s="79" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="B15" s="129" t="s">
+        <v>244</v>
+      </c>
+      <c r="C15" s="49">
+        <v>1.0</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="E15" s="131" t="s">
+        <v>227</v>
+      </c>
+      <c r="F15" s="79" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" ht="30.75" customHeight="1">
+      <c r="B16" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="C16" s="74">
+        <v>1.0</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>247</v>
+      </c>
+      <c r="E16" s="74" t="s">
+        <v>248</v>
+      </c>
+      <c r="F16" s="132" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" ht="38.25" customHeight="1">
+      <c r="B17" s="17"/>
+      <c r="C17" s="61">
+        <v>2.0</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="E17" s="133" t="s">
+        <v>250</v>
+      </c>
+      <c r="F17" s="134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" ht="33.75" customHeight="1">
+      <c r="B18" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C18" s="74">
+        <v>1.0</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>252</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="F18" s="132" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" ht="36.0" customHeight="1">
+      <c r="B19" s="17"/>
+      <c r="C19" s="54">
+        <v>2.0</v>
+      </c>
+      <c r="D19" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="E19" s="133" t="s">
+        <v>250</v>
+      </c>
+      <c r="F19" s="135" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" ht="30.75" customHeight="1">
+      <c r="B20" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="74">
+        <v>1.0</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>255</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="F20" s="132" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" ht="42.0" customHeight="1">
+      <c r="B21" s="17"/>
+      <c r="C21" s="54">
+        <v>2.0</v>
+      </c>
+      <c r="D21" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="E21" s="133" t="s">
+        <v>250</v>
+      </c>
+      <c r="F21" s="135" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" ht="40.5" customHeight="1">
+      <c r="B22" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C22" s="49">
+        <v>1.0</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>232</v>
+      </c>
+      <c r="E22" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" ht="45.75" customHeight="1">
+      <c r="B23" s="17"/>
+      <c r="C23" s="54">
+        <v>2.0</v>
+      </c>
+      <c r="D23" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="E23" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="135" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+  </mergeCells>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>